--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_14.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5379741.591057925</v>
+        <v>5379741.591057927</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>89.93607067950306</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,7 +1221,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>124.5711859659953</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>17.61720206839</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1901,13 +1901,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>147.9845033927267</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,73 +2081,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>41.41746221848938</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="22">
@@ -2251,55 +2251,55 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>18.46568463609917</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2497,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>93.97284234826154</v>
       </c>
       <c r="H27" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.9201139181636</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>144.1493081031292</v>
       </c>
     </row>
     <row r="31">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
@@ -3038,7 +3038,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243786</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>23.26470831312115</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>36.52847303402358</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>78.85587411363937</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4119,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,7 +4416,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877.4710495913895</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>703.0180203102625</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>554.0836106490112</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E6" t="n">
-        <v>394.8461556435558</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F6" t="n">
-        <v>248.3115976704407</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F8" t="n">
+        <v>730.8505943024719</v>
+      </c>
+      <c r="G8" t="n">
+        <v>487.4018176583718</v>
+      </c>
+      <c r="H8" t="n">
+        <v>243.9530410142718</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J8" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>453.2824885506521</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>304.3480788894009</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>145.1106238839454</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="10">
@@ -4984,22 +4984,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
         <v>41.77557929797318</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5154,16 +5154,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>259.0600686093459</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5242,7 +5242,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,7 +5364,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5537,22 +5537,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
@@ -5735,10 +5735,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>754.0059980678517</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>579.5529687867247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6185591254734</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>922.2213350879197</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>922.2213350879197</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>922.2213350879197</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>922.2213350879197</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>922.2213350879197</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>922.2213350879197</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.3863790944702</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>37.9333498133432</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>37.9333498133432</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6075,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6099,19 +6099,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6017161145382</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6169,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.77296163243852</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C27" t="n">
-        <v>76.77296163243852</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D27" t="n">
-        <v>76.77296163243852</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="E27" t="n">
-        <v>76.77296163243852</v>
+        <v>260.7377640613697</v>
       </c>
       <c r="F27" t="n">
-        <v>76.77296163243852</v>
+        <v>114.2032060882547</v>
       </c>
       <c r="G27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.77296163243852</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="28">
@@ -6403,22 +6403,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.9294114938717</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6789,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>913.4938269565423</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>927.1597080015215</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>698.9360897379105</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="40">
@@ -7357,13 +7357,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,13 +7500,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>706.487660844374</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>471.3355526126313</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>227.8867759685313</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7609,10 +7609,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>405.8038725402083</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,10 +10437,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,7 +10908,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,16 +11148,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,7 +22562,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22595,25 +22595,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>142.8645164699222</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22860,28 +22860,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.81293878981307</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>84.81608375669855</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23066,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23109,7 +23109,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>20.49802642738855</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,7 +23157,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23224,7 +23224,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>114.792179629552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23303,19 +23303,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.8347431830299</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23394,16 +23394,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.6671775926096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>129.8278634962487</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>201.1924361087609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23789,13 +23789,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>257.4021743712353</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>84.81608375669853</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,19 +23969,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>158.7472664763322</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>156.9351659141304</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>139.1793958193018</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,16 +24339,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24385,10 +24385,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>159.7350957343571</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,16 +24528,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>43.3706748149491</v>
       </c>
       <c r="H27" t="n">
-        <v>55.31854389949292</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,16 +24576,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24737,13 +24737,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7883850701521737</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>61.53338767417517</v>
       </c>
     </row>
     <row r="31">
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
@@ -24926,7 +24926,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>216.5306486674267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>10.40164370392489</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,10 +25044,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25099,7 +25099,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>69.0973563527909</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,13 +25169,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>172.6288712164514</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>324.4869424129383</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25236,16 +25236,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>124.1803572515176</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,10 +25391,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25470,19 +25470,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>123.3973950460205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>163.636255660798</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25944,16 +25944,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>93.85262487467637</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25962,10 +25962,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,7 +25998,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,10 +26007,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.883087731</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.883087731</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.883087731</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12917.76202108068</v>
+        <v>-12917.76202108071</v>
       </c>
       <c r="C6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046704</v>
       </c>
       <c r="D6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046708</v>
       </c>
       <c r="E6" t="n">
         <v>101479.269510467</v>
@@ -26537,13 +26537,13 @@
         <v>101479.269510467</v>
       </c>
       <c r="H6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="I6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>38419.32691136083</v>
+        <v>38419.32691136082</v>
       </c>
       <c r="K6" t="n">
         <v>101479.269510467</v>
@@ -26552,7 +26552,7 @@
         <v>101479.269510467</v>
       </c>
       <c r="M6" t="n">
-        <v>101479.2695104671</v>
+        <v>101479.269510467</v>
       </c>
       <c r="N6" t="n">
         <v>101479.269510467</v>
@@ -26561,7 +26561,7 @@
         <v>101479.269510467</v>
       </c>
       <c r="P6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N3" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35659,7 +35659,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35732,10 +35732,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9067907798016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
